--- a/env/data/stop_news.xlsx
+++ b/env/data/stop_news.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\erzhu419\mine_code\LSTM-RL\env\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC513D5-9C2E-49EB-BE1A-F021431000EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="11115"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>X02</t>
   </si>
@@ -78,16 +93,10 @@
     <t>Terminal_up</t>
   </si>
   <si>
-    <t>X00</t>
-  </si>
-  <si>
     <t>X01</t>
   </si>
   <si>
     <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
   </si>
   <si>
     <t>Terminal_down</t>
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,34 +443,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="1" max="2" width="12.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -469,7 +478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -477,180 +486,164 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
